--- a/RiskAssessmentMatrix.xlsx
+++ b/RiskAssessmentMatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahdi\Documents\fall2022\cpsc2350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dana/Documents/GitHub/Goal_Tracker.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BFE8C41-50AB-49AC-BF48-8FD37CDAD5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511C6DE2-9F9F-904D-AA16-4289F5937DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7DB344F0-C5D1-4240-A13D-490164212D63}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{7DB344F0-C5D1-4240-A13D-490164212D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -251,41 +251,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dotted">
         <color indexed="64"/>
       </left>
@@ -435,51 +400,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,295 +769,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2CD75F-263B-48D0-B4A9-0D0CBA467286}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
-    <col min="14" max="16" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" customWidth="1"/>
+    <col min="14" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="I3" s="27" t="s">
+      <c r="G3" s="19"/>
+      <c r="I3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="I4" s="16" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="12" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="12" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="12" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:15" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="144" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="29" t="s">
         <v>30</v>
       </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="30" t="s">
         <v>28</v>
       </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
-    <row r="25" spans="19:19" x14ac:dyDescent="0.3">
-      <c r="S25" s="13"/>
+    <row r="25" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
